--- a/documents/time-records/Ertel_Bernhard.xlsx
+++ b/documents/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t xml:space="preserve">delete demo-packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konzeptbeschreibung anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konzeptbeschreibung und Testdrehbuch anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finally removing demo-stuff</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -427,10 +436,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
@@ -674,7 +683,7 @@
         <v>44313</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.0625</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>6</v>
@@ -748,7 +757,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="7" t="n">
         <v>44326</v>
       </c>
       <c r="B24" s="8" t="n">
@@ -761,25 +770,70 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <v>44327</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="4" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.125</v>
+      </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="4" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
@@ -6645,7 +6699,7 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17 C20 C27:C1006" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 E8:E10 C15 C17 C20 C28:C1006" type="list">
       <formula1>Tätigkeiten!$B$2:$B$12</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6679,17 +6733,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6697,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6705,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,7 +6775,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,7 +6783,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6745,7 +6799,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6761,7 +6815,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6769,7 +6823,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/documents/time-records/Ertel_Bernhard.xlsx
+++ b/documents/time-records/Ertel_Bernhard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t xml:space="preserve">Datum</t>
   </si>
@@ -134,6 +134,54 @@
     <t xml:space="preserve">finally removing demo-stuff</t>
   </si>
   <si>
+    <t xml:space="preserve">Testen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test von anderem Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCases von anderem Team und Usability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnahmetest studieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besprechung Abnahmetest von anderem Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weiteres Vorgehen besprechen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes in createGame-Dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komponentendiagramm verfeinern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufzeitdiagramm erstellen für Spiel erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstimmung weiteres Vorgehen/letzte Schritte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufzeitdiagramm erstellen für  CubeStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufzeitdiagramm erstellen Spielrunde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laufzeitdiagramme anpassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smaller Adjustment in Code – Testing of Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finale Abgabe</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -168,14 +216,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="hh:mm"/>
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -287,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,10 +389,6 @@
     </xf>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -436,10 +479,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.87109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.13"/>
@@ -771,7 +814,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="7" t="n">
         <v>44327</v>
       </c>
       <c r="B25" s="8" t="n">
@@ -785,7 +828,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
+      <c r="A26" s="7" t="n">
         <v>44328</v>
       </c>
       <c r="B26" s="8" t="n">
@@ -796,11 +839,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
+      <c r="A27" s="7" t="n">
         <v>44329</v>
       </c>
       <c r="B27" s="8" t="n">
-        <v>0.0416666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>6</v>
@@ -836,106 +879,222 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="4" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B30" s="5" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="4" t="n">
+        <v>44329</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="4" t="n">
+        <v>44332</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0.0625</v>
+      </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="4" t="n">
+        <v>44334</v>
+      </c>
+      <c r="B33" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="4" t="n">
+        <v>44341</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B35" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4" t="n">
+        <v>44343</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="4" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B37" s="5" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="4" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="4" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="4" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B40" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="4" t="n">
+        <v>44359</v>
+      </c>
+      <c r="B42" s="5" t="n">
+        <v>0.166666666666667</v>
+      </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="4" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="4" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>0.104166666666667</v>
+      </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="4" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>0.125</v>
+      </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="6"/>
+      <c r="A46" s="4" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
@@ -6733,17 +6892,17 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.87109375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>31</v>
+      <c r="A1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +6926,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,7 +6974,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,7 +6982,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
